--- a/biology/Biologie cellulaire et moléculaire/Agent_chimiothérapeutique/Agent_chimiothérapeutique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Agent_chimiothérapeutique/Agent_chimiothérapeutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agent_chimioth%C3%A9rapeutique</t>
+          <t>Agent_chimiothérapeutique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un agent chimiothérapeutique est un médicament utilisé en chimiothérapie, c'est-à-dire dans le traitement du cancer. Il peut être aussi qualifié de cytotoxique ou antinéoplasique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agent_chimioth%C3%A9rapeutique</t>
+          <t>Agent_chimiothérapeutique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agents alkylants
-Moutarde à l'azote et dérivés
+          <t>Agents alkylants</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Moutarde à l'azote et dérivés
 busulfan
 chlorambucil
 cyclophosphamide
@@ -528,9 +545,43 @@
 carboplatine
 cisplatine
 oxaliplatine
-Divers : dacarbazine, …
-Antimétabolites
-Antagonistes de l'acide folique : méthotrexate
+Divers : dacarbazine, …</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principales classes d'agents chimiothérapeutiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Antimétabolites</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antagonistes de l'acide folique : méthotrexate
 Analogues de la purine
 cladribine
 fludarabine
@@ -539,24 +590,126 @@
 Analogues de la pyrimidine
 cytarabine
 fluorouracile
-Divers : hydroxycarbamide
-Antibiotiques antitumoraux
-Anthracyclines
+Divers : hydroxycarbamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales classes d'agents chimiothérapeutiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antibiotiques antitumoraux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthracyclines
 doxorubicine
 épirubicine
 daunorubicine
 idarubicine
 bléomycine
-Divers : dactinomycine ; mitomycine C ; mitoxantrone, …
-Inhibiteurs de la topo-isomérase
-Inhibiteurs de la topo-isomérase 1
+Divers : dactinomycine ; mitomycine C ; mitoxantrone, …</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales classes d'agents chimiothérapeutiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la topo-isomérase</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la topo-isomérase 1
 irinotécan
 topotécan
 Inhibiteurs de la topo-isomérase 2
 étoposide
-téniposide
-Inhibiteurs des microtubules
-Dérivés de la pervenche
+téniposide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales classes d'agents chimiothérapeutiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Inhibiteurs des microtubules</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dérivés de la pervenche
 vinblastine
 vincristine
 vindésine
@@ -564,9 +717,43 @@
 Taxanes
 docétaxel
 paclitaxel
-Divers : estramustine
-Divers
-alemtuzumab
+Divers : estramustine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales classes d'agents chimiothérapeutiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">alemtuzumab
 amsacrine
 anagrélide
 l-asparaginase
@@ -582,39 +769,75 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agent_chimioth%C3%A9rapeutique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les effets indésirables possibles, citons :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Parmi les effets indésirables possibles, citons :
 Dépression de la moelle osseuse
 Hyperuricémie
 Troubles gastro-intestinaux
-Alopécie.
-Grossesse
-La chimiothérapie est dangereuse pour l'embryon et le fœtus, et une contraception doit être envisagée chez les femmes en âge de procréer.
+Alopécie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agent_chimiothérapeutique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agent_chimioth%C3%A9rapeutique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Effets indésirables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Grossesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chimiothérapie est dangereuse pour l'embryon et le fœtus, et une contraception doit être envisagée chez les femmes en âge de procréer.
 </t>
         </is>
       </c>
